--- a/figures/TbleS1.xlsx
+++ b/figures/TbleS1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laure/Documents/RESEARCH/Experiments/DATA/AnalysisEvolRescueExp/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525BD234-CC6B-DD4F-95A9-A595C025C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F0FD7-CB15-CA4D-8DFB-E8D591401A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="1420" windowWidth="22220" windowHeight="18860" activeTab="2" xr2:uid="{4F4AD3C4-0D87-9B44-8347-3B285B0D05F2}"/>
+    <workbookView xWindow="13500" yWindow="1420" windowWidth="22220" windowHeight="18860" activeTab="1" xr2:uid="{4F4AD3C4-0D87-9B44-8347-3B285B0D05F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,6 @@
     <t>△df</t>
   </si>
   <si>
-    <t>△χ2</t>
-  </si>
-  <si>
-    <t>χ2</t>
-  </si>
-  <si>
     <t>Growth_rate ~ Block + (1|Population)</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>Variance</t>
+  </si>
+  <si>
+    <t>△d</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -299,8 +299,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,83 +440,56 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18151839-7650-DD4C-936C-5EDAA038A5B9}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,38 +856,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="2"/>
@@ -950,18 +923,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="7">
         <v>21.29027</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="7"/>
       <c r="G3" s="3">
         <v>3</v>
       </c>
@@ -973,22 +944,22 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="9">
         <v>5</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <v>11.896229999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="10">
         <v>9.3940330000000003</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3">
@@ -1008,28 +979,23 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="7">
         <v>0.95459000000000005</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="7"/>
       <c r="G6" s="3">
         <v>3</v>
       </c>
@@ -1041,22 +1007,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>9</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="10">
         <v>0.74887999999999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="10">
         <v>0.20571</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="10">
         <v>0.6502</v>
       </c>
       <c r="G7" s="3">
@@ -1076,228 +1042,217 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="7">
         <v>1977.92</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="7">
         <v>1974.9179999999999</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="7">
         <v>3.0030000000000001</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="7">
         <v>0.42299999999999999</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="H12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="7">
         <v>2072.8359999999998</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="9">
         <v>8</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="10">
         <v>1977.92</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="10">
         <v>94.915999999999997</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="28"/>
-      <c r="I15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="7">
         <v>1993.3530000000001</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="I16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="9">
         <v>8</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="10">
         <v>1977.92</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="10">
         <v>15.432</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="13">
-        <v>-261.26</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="13"/>
+      <c r="C20">
+        <v>522.53</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="G20" s="3"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="13">
-        <v>-253.45</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="7">
+        <v>506.9</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="7">
         <v>15.635</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="3"/>
@@ -1309,14 +1264,14 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
       <c r="M22" s="3">
         <v>7</v>
       </c>
@@ -1334,36 +1289,34 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>522.53</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="13">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13">
-        <v>-254.95</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="17">
+      <c r="B24" s="9">
         <v>6</v>
       </c>
-      <c r="C24" s="17">
-        <v>-261.26</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="C24" s="7">
+        <v>509.9</v>
+      </c>
+      <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="10">
         <v>12.627000000000001</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M24" s="3">
@@ -1377,14 +1330,14 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="M25" s="3">
         <v>6</v>
       </c>
@@ -1402,36 +1355,34 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="C26" s="13">
-        <v>-8429.7000000000007</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="13"/>
+      <c r="C26">
+        <v>16859.400000000001</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9">
         <v>9</v>
       </c>
-      <c r="C27" s="17">
-        <v>-7412.2</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="C27" s="9">
+        <v>14824.4</v>
+      </c>
+      <c r="D27" s="9">
         <v>1</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="10">
         <v>2035.1</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M27" s="3">
@@ -1445,14 +1396,10 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="7"/>
       <c r="M28" s="3">
         <v>9</v>
       </c>
@@ -1470,36 +1417,34 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="13">
-        <v>-7412.2</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="13"/>
+      <c r="C29">
+        <v>14824.4</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="17">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="9">
         <v>9</v>
       </c>
-      <c r="C30" s="17">
-        <v>-7412.2</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30">
+        <v>14824.4</v>
+      </c>
+      <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="10">
         <v>0.127</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="10">
         <v>0.9385</v>
       </c>
       <c r="M30" s="3">
@@ -1555,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F603166-B2C3-C04E-96F6-572592A93BA9}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1566,680 +1511,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="42">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22">
         <v>3.9096160000000003E-3</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="23">
         <v>2.4564029999999999E-5</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="24">
         <v>5.0827209999999998E-2</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="44">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="24">
         <v>7.1803609000000004E-2</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="24">
         <v>7.3374379999999999E-3</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="24">
         <v>0.27198420000000001</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="24">
+        <v>8.3708169999999998E-2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>9.5577490000000008E-3</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.28088410000000003</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.63440024900000003</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.1743238</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.95289365000000004</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.92791604400000005</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.7136479</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.99243901999999995</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4.7970449999999998</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.1266280000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6.9843510000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.9998100000000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3.6062419999999999</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6.7134879999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="44">
-        <v>8.3708169999999998E-2</v>
-      </c>
-      <c r="C4" s="44">
-        <v>9.5577490000000008E-3</v>
-      </c>
-      <c r="D4" s="44">
-        <v>0.28088410000000003</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="44">
-        <v>0.63440024900000003</v>
-      </c>
-      <c r="C5" s="44">
-        <v>0.1743238</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0.95289365000000004</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="45">
-        <v>0.92791604400000005</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0.7136479</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0.99243901999999995</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="35">
-        <v>4.7970449999999998</v>
-      </c>
-      <c r="C8" s="35">
-        <v>3.1266280000000002</v>
-      </c>
-      <c r="D8" s="35">
-        <v>6.9843510000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="37">
-        <v>4.9998100000000001</v>
-      </c>
-      <c r="C9" s="37">
-        <v>3.6062419999999999</v>
-      </c>
-      <c r="D9" s="37">
-        <v>6.7134879999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="B12" s="7">
         <v>5.1690199999999997</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <v>8.4580000000000002E-2</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
       <c r="G12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7">
         <v>4.7646699999999997</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <v>8.9120000000000005E-2</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
       <c r="G13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.6527099999999999</v>
+      </c>
+      <c r="C14">
+        <v>7.7340000000000006E-2</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-8.5110000000000005E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.6929999999999993E-2</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-0.33631</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.10113999999999999</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3.371</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3.0970000000000003E-5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6.1489999999999996E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7">
+        <v>19.88</v>
+      </c>
+      <c r="C22" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="35">
-        <v>4.6527099999999999</v>
-      </c>
-      <c r="C14" s="13">
-        <v>7.7340000000000006E-2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="B25" s="7">
+        <v>2.569709</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.2034039999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2.937236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.6963429999999999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.2630197000000001</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2.1273737000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="35">
-        <v>-8.5110000000000005E-2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>8.6929999999999993E-2</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="37">
-        <v>-0.33631</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.10113999999999999</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="35">
-        <v>3.371</v>
-      </c>
-      <c r="C18" s="35">
-        <v>3.7810000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="35">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="35">
-        <v>3.0970000000000003E-5</v>
-      </c>
-      <c r="C20" s="35">
-        <v>6.1489999999999996E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="35">
-        <v>1</v>
-      </c>
-      <c r="C21" s="35">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="35">
-        <v>19.88</v>
-      </c>
-      <c r="C22" s="35">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="B27" s="7">
+        <v>1.868811</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.5040560999999999</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.2293763000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.22048400000000001</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-0.18818219999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.62595670000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-3.6949999999999999E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-0.48157240000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.46830959999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.2321</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.48170000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0.748</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.8649</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.81541799999999998</v>
+      </c>
+      <c r="C35" s="7">
+        <v>9.8494810000000002E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.5283487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.76556</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.85203145999999996</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2.6836107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.22253600000000001</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-0.19603631999999999</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.64013469999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>-1.8029999999999999E-3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-0.48746506000000001</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.48230309999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.748</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.8649</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="24">
+        <v>-5.3145756000000004</v>
+      </c>
+      <c r="C44" s="24">
+        <v>-5.6569330000000004</v>
+      </c>
+      <c r="D44" s="24">
+        <v>-4.9722181000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="24">
+        <v>-3.4183485</v>
+      </c>
+      <c r="C45" s="24">
+        <v>-3.7512707000000001</v>
+      </c>
+      <c r="D45" s="24">
+        <v>-3.0854262000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="24">
+        <v>-2.6176346000000001</v>
+      </c>
+      <c r="C46" s="24">
+        <v>-2.7519583000000001</v>
+      </c>
+      <c r="D46" s="24">
+        <v>-2.4833109000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0.1046647</v>
+      </c>
+      <c r="C47" s="24">
+        <v>-0.34449540000000001</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0.55382480000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="24">
+        <v>0.17072770000000001</v>
+      </c>
+      <c r="C48" s="24">
+        <v>-0.38168220000000003</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0.72313760000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="35">
-        <v>2.569709</v>
-      </c>
-      <c r="C25" s="35">
-        <v>2.2034039999999999</v>
-      </c>
-      <c r="D25" s="35">
-        <v>2.937236</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="35">
-        <v>1.6963429999999999</v>
-      </c>
-      <c r="C26" s="35">
-        <v>1.2630197000000001</v>
-      </c>
-      <c r="D26" s="35">
-        <v>2.1273737000000001</v>
-      </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="35">
-        <v>1.868811</v>
-      </c>
-      <c r="C27" s="35">
-        <v>1.5040560999999999</v>
-      </c>
-      <c r="D27" s="35">
-        <v>2.2293763000000002</v>
-      </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="35">
-        <v>0.22048400000000001</v>
-      </c>
-      <c r="C28" s="35">
-        <v>-0.18818219999999999</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.62595670000000003</v>
-      </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="35">
-        <v>-3.6949999999999999E-3</v>
-      </c>
-      <c r="C29" s="35">
-        <v>-0.48157240000000001</v>
-      </c>
-      <c r="D29" s="35">
-        <v>0.46830959999999999</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B50">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="C50">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="44">
-        <v>0.2321</v>
-      </c>
-      <c r="C31" s="44">
-        <v>0.48170000000000002</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="45">
-        <v>0.748</v>
-      </c>
-      <c r="C32" s="45">
-        <v>0.8649</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="35">
-        <v>0.81541799999999998</v>
-      </c>
-      <c r="C35" s="35">
-        <v>9.8494810000000002E-2</v>
-      </c>
-      <c r="D35" s="35">
-        <v>1.5283487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="35">
-        <v>1.76556</v>
-      </c>
-      <c r="C36" s="35">
-        <v>0.85203145999999996</v>
-      </c>
-      <c r="D36" s="35">
-        <v>2.6836107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="35">
-        <v>0.22253600000000001</v>
-      </c>
-      <c r="C37" s="35">
-        <v>-0.19603631999999999</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0.64013469999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="35">
-        <v>-1.8029999999999999E-3</v>
-      </c>
-      <c r="C38" s="35">
-        <v>-0.48746506000000001</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0.48230309999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="44">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="C40" s="44">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="45">
-        <v>0.748</v>
-      </c>
-      <c r="C41" s="45">
-        <v>0.8649</v>
-      </c>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="44">
-        <v>-5.3145756000000004</v>
-      </c>
-      <c r="C44" s="44">
-        <v>-5.6569330000000004</v>
-      </c>
-      <c r="D44" s="44">
-        <v>-4.9722181000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="44">
-        <v>-3.4183485</v>
-      </c>
-      <c r="C45" s="44">
-        <v>-3.7512707000000001</v>
-      </c>
-      <c r="D45" s="44">
-        <v>-3.0854262000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="44">
-        <v>-2.6176346000000001</v>
-      </c>
-      <c r="C46" s="44">
-        <v>-2.7519583000000001</v>
-      </c>
-      <c r="D46" s="44">
-        <v>-2.4833109000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="44">
-        <v>0.1046647</v>
-      </c>
-      <c r="C47" s="44">
-        <v>-0.34449540000000001</v>
-      </c>
-      <c r="D47" s="44">
-        <v>0.55382480000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="44">
-        <v>0.17072770000000001</v>
-      </c>
-      <c r="C48" s="44">
-        <v>-0.38168220000000003</v>
-      </c>
-      <c r="D48" s="44">
-        <v>0.72313760000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="C50" s="13">
-        <v>0.72</v>
-      </c>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="45">
+      <c r="B51" s="25">
         <v>0.34010000000000001</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="25">
         <v>0.58320000000000005</v>
       </c>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
